--- a/data/GC2021/tempGas.xlsx
+++ b/data/GC2021/tempGas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriannagorsky/Documents/Research/GHG/GHG/data/GC2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C9972-47AF-DD4B-9522-8D608F6EC18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB03F41A-784C-1E46-BC9C-F3CDEB9C9AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="23840" windowHeight="12500" xr2:uid="{2FB32884-3FB2-1740-BE99-5FB00B32F609}"/>
+    <workbookView xWindow="34320" yWindow="2940" windowWidth="23840" windowHeight="12500" xr2:uid="{2FB32884-3FB2-1740-BE99-5FB00B32F609}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E81B45-EAC9-3048-8A38-D6513A698361}">
   <dimension ref="A1:H268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="J244" sqref="J244"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>14.1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>14.1</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F4">
         <v>14.1</v>
@@ -550,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F5">
         <v>4.0999999999999996</v>
@@ -576,10 +576,10 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>4.0999999999999996</v>
@@ -602,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>4.0999999999999996</v>
@@ -628,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F8">
         <v>4.0999999999999996</v>
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F9">
         <v>4.0999999999999996</v>
@@ -680,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>4.0999999999999996</v>
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>4.2</v>
@@ -732,10 +732,10 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F12">
         <v>4.2</v>
@@ -758,10 +758,10 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>4.2</v>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <v>11.7</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F15">
         <v>11.7</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <v>11.7</v>
@@ -862,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F17">
         <v>3.9</v>
@@ -888,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>3.9</v>
@@ -914,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <v>3.9</v>
@@ -940,10 +940,10 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F20">
         <v>3.8</v>
@@ -966,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F21">
         <v>3.8</v>
@@ -992,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F22">
         <v>3.8</v>
@@ -1018,10 +1018,10 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -1044,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1070,10 +1070,10 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F25">
         <v>4</v>
